--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACD/20/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACD/20/seed2/result_data_RandomForest.xlsx
@@ -468,7 +468,7 @@
         <v>3.8</v>
       </c>
       <c r="C2" t="n">
-        <v>-11.1971</v>
+        <v>-11.5831</v>
       </c>
       <c r="D2" t="n">
         <v>-8.220000000000001</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.30950000000002</v>
+        <v>-21.40810000000003</v>
       </c>
       <c r="B3" t="n">
         <v>4.54</v>
@@ -519,10 +519,10 @@
         <v>4.35</v>
       </c>
       <c r="C5" t="n">
-        <v>-14.32690000000001</v>
+        <v>-14.4477</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.642199999999994</v>
+        <v>-8.543799999999997</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -590,7 +590,7 @@
         <v>-13.02</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.719400000000004</v>
+        <v>-8.051600000000001</v>
       </c>
       <c r="E9" t="n">
         <v>12.31</v>
@@ -624,7 +624,7 @@
         <v>-13.87</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.409000000000001</v>
+        <v>-8.344200000000003</v>
       </c>
       <c r="E11" t="n">
         <v>13.91</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-20.4167</v>
+        <v>-20.4423</v>
       </c>
       <c r="B14" t="n">
         <v>8.33</v>
@@ -700,13 +700,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-20.2015</v>
+        <v>-20.2064</v>
       </c>
       <c r="B16" t="n">
         <v>8.949999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>-11.62059999999999</v>
+        <v>-11.63429999999999</v>
       </c>
       <c r="D16" t="n">
         <v>-4.8</v>
@@ -726,7 +726,7 @@
         <v>-12.35</v>
       </c>
       <c r="D17" t="n">
-        <v>-8.448400000000007</v>
+        <v>-8.314400000000004</v>
       </c>
       <c r="E17" t="n">
         <v>8.15</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-21.29870000000001</v>
+        <v>-21.13430000000001</v>
       </c>
       <c r="B21" t="n">
         <v>7.49</v>
@@ -794,7 +794,7 @@
         <v>-12.06</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.750000000000004</v>
+        <v>-7.708500000000003</v>
       </c>
       <c r="E21" t="n">
         <v>13.76</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-21.41340000000003</v>
+        <v>-21.70900000000003</v>
       </c>
       <c r="B23" t="n">
         <v>5.8</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-22.46970000000004</v>
+        <v>-22.45680000000003</v>
       </c>
       <c r="B25" t="n">
         <v>5.09</v>
